--- a/document-test.xlsx
+++ b/document-test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61011\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61011\Desktop\mini-plant-app\mini-plant-service-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7809B27B-44BB-4FF6-8E66-EA54EBBD4910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB91761-60F2-4225-8F99-64261C4FC1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0516D730-BA96-42EA-9942-EA5C8FA89769}"/>
+    <workbookView xWindow="19080" yWindow="6390" windowWidth="20730" windowHeight="11310" xr2:uid="{0516D730-BA96-42EA-9942-EA5C8FA89769}"/>
   </bookViews>
   <sheets>
     <sheet name="draft 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="56">
   <si>
     <t>Functions</t>
   </si>
@@ -193,6 +193,15 @@
   </si>
   <si>
     <t>./order/item/remove</t>
+  </si>
+  <si>
+    <t>./payment/edit</t>
+  </si>
+  <si>
+    <t>./media/image/</t>
+  </si>
+  <si>
+    <t>./medial/image/add</t>
   </si>
 </sst>
 </file>
@@ -262,12 +271,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -410,44 +419,44 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -479,50 +488,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DE177A-7FEF-48EA-B8AD-276CB4A222C6}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -860,1007 +953,1112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="32" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35" t="s">
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="7" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="6" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="6" t="s">
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="6" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="6" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="6" t="s">
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="6" t="s">
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="28"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="6" t="s">
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="28"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="27"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="28"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="28"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="21"/>
+      <c r="K19" s="28"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="6" t="s">
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="6" t="s">
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" s="6" t="s">
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="18"/>
+      <c r="I23" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="I24" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="26" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K25" s="6" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26" s="6" t="s">
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K27" s="6" t="s">
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K28" s="6" t="s">
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K29" s="6" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30" s="6" t="s">
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K31" s="6" t="s">
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="18"/>
+      <c r="I32" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="18"/>
+      <c r="I35" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="18"/>
+      <c r="I36" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36" s="26" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="2"/>
+      <c r="H37" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C38" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>36</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="18"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="28"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C39" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
-        <v>37</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="28"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="47">
+        <v>38</v>
+      </c>
+      <c r="B40" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C40" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="47"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="28"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="52"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K41" s="28"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="55">
+        <v>40</v>
+      </c>
+      <c r="B42" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="52"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="J42" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="K42" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C12:E12"/>
@@ -1868,20 +2066,28 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:E2"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/document-test.xlsx
+++ b/document-test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61011\Desktop\mini-plant-app\mini-plant-service-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB91761-60F2-4225-8F99-64261C4FC1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05098FDE-A4BC-4295-AB4C-26DD0F2F212E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="6390" windowWidth="20730" windowHeight="11310" xr2:uid="{0516D730-BA96-42EA-9942-EA5C8FA89769}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{0516D730-BA96-42EA-9942-EA5C8FA89769}"/>
   </bookViews>
   <sheets>
     <sheet name="draft 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="56">
   <si>
     <t>Functions</t>
   </si>
@@ -156,15 +156,6 @@
     <t>./payment/add</t>
   </si>
   <si>
-    <t>./history/customer/order</t>
-  </si>
-  <si>
-    <t>./history/report/daily</t>
-  </si>
-  <si>
-    <t>./history/report/monthly</t>
-  </si>
-  <si>
     <t>./order</t>
   </si>
   <si>
@@ -202,6 +193,15 @@
   </si>
   <si>
     <t>./medial/image/add</t>
+  </si>
+  <si>
+    <t>* 36. ./history/customer/order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customer_name, </t>
+  </si>
+  <si>
+    <t>./history</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -524,25 +524,31 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -554,21 +560,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -578,43 +569,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -931,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DE177A-7FEF-48EA-B8AD-276CB4A222C6}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -953,38 +941,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="41" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="39" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>46</v>
+      <c r="J1" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
@@ -994,9 +982,9 @@
       <c r="H2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -1005,11 +993,11 @@
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1020,13 +1008,13 @@
         <v>6</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1036,24 +1024,24 @@
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1063,24 +1051,24 @@
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1090,24 +1078,24 @@
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="18"/>
       <c r="I6" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1117,24 +1105,24 @@
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="18"/>
       <c r="I7" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1144,24 +1132,24 @@
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="18"/>
       <c r="I8" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1171,24 +1159,24 @@
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="18"/>
       <c r="I9" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1198,11 +1186,11 @@
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1211,13 +1199,13 @@
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1227,11 +1215,11 @@
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1250,24 +1238,24 @@
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="18" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K12" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1277,11 +1265,11 @@
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1292,7 +1280,7 @@
         <v>6</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="28"/>
@@ -1304,11 +1292,11 @@
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1329,11 +1317,11 @@
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
         <v>6</v>
@@ -1350,11 +1338,11 @@
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="2" t="s">
         <v>6</v>
       </c>
@@ -1371,18 +1359,18 @@
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J17" s="21"/>
       <c r="K17" s="28"/>
@@ -1394,18 +1382,18 @@
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="18"/>
       <c r="I18" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J18" s="21"/>
       <c r="K18" s="28"/>
@@ -1417,18 +1405,18 @@
       <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="18"/>
       <c r="I19" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J19" s="21"/>
       <c r="K19" s="28"/>
@@ -1440,11 +1428,11 @@
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1455,13 +1443,13 @@
         <v>6</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1471,24 +1459,24 @@
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="18"/>
       <c r="I21" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1498,24 +1486,24 @@
       <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="18"/>
       <c r="I22" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1525,11 +1513,11 @@
       <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="46"/>
+      <c r="C23" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="42"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="2" t="s">
         <v>6</v>
       </c>
@@ -1538,13 +1526,13 @@
       </c>
       <c r="H23" s="18"/>
       <c r="I23" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K23" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1554,24 +1542,24 @@
       <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
+      <c r="C24" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1582,7 +1570,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="10"/>
@@ -1594,13 +1582,13 @@
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1611,7 +1599,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
@@ -1621,13 +1609,13 @@
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K26" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1638,7 +1626,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="10"/>
@@ -1648,13 +1636,13 @@
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1665,7 +1653,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="13"/>
@@ -1675,13 +1663,13 @@
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K28" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1706,13 +1694,13 @@
         <v>6</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K29" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1733,13 +1721,13 @@
       <c r="G30" s="2"/>
       <c r="H30" s="18"/>
       <c r="I30" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -1760,13 +1748,13 @@
       <c r="G31" s="2"/>
       <c r="H31" s="18"/>
       <c r="I31" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -1789,13 +1777,13 @@
       </c>
       <c r="H32" s="18"/>
       <c r="I32" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -1816,13 +1804,13 @@
       <c r="G33" s="2"/>
       <c r="H33" s="18"/>
       <c r="I33" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K33" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -1843,13 +1831,13 @@
       <c r="G34" s="2"/>
       <c r="H34" s="18"/>
       <c r="I34" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K34" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -1872,13 +1860,13 @@
       </c>
       <c r="H35" s="18"/>
       <c r="I35" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K35" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -1899,13 +1887,13 @@
       </c>
       <c r="H36" s="18"/>
       <c r="I36" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K36" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -1916,7 +1904,7 @@
         <v>16</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="16"/>
@@ -1925,13 +1913,13 @@
         <v>6</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K37" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -1942,7 +1930,7 @@
         <v>15</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
@@ -1961,104 +1949,94 @@
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="28"/>
+      <c r="C39" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K39" s="26" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="47">
+      <c r="A40" s="32">
         <v>38</v>
       </c>
-      <c r="B40" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="49"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="47"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="28"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>39</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="17" t="s">
+      <c r="B40" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="J40" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K40" s="37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="52"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="I41" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="J41" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K41" s="28"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="55">
-        <v>40</v>
-      </c>
-      <c r="B42" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="52"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I42" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="J42" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="K42" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C12:E12"/>
@@ -2070,24 +2048,6 @@
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/document-test.xlsx
+++ b/document-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61011\Desktop\mini-plant-app\mini-plant-service-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05098FDE-A4BC-4295-AB4C-26DD0F2F212E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DC07C5-6518-4E1A-A386-C33CF573776C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{0516D730-BA96-42EA-9942-EA5C8FA89769}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="54">
   <si>
     <t>Functions</t>
   </si>
@@ -93,27 +93,12 @@
     <t>./shop</t>
   </si>
   <si>
-    <t>./shop/comment/write</t>
-  </si>
-  <si>
-    <t>./shop/comment/</t>
-  </si>
-  <si>
-    <t>./shop/comment/reply</t>
-  </si>
-  <si>
     <t>./shop/rating</t>
   </si>
   <si>
-    <t>./shop/add</t>
-  </si>
-  <si>
     <t>./shop/edit</t>
   </si>
   <si>
-    <t>progress</t>
-  </si>
-  <si>
     <t>general</t>
   </si>
   <si>
@@ -138,39 +123,15 @@
     <t>./promotion/edit</t>
   </si>
   <si>
-    <t>./shipment</t>
-  </si>
-  <si>
-    <t>./shipment/add</t>
-  </si>
-  <si>
-    <t>./shipment/edit</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
-    <t>./payment</t>
-  </si>
-  <si>
-    <t>./payment/add</t>
-  </si>
-  <si>
     <t>./order</t>
   </si>
   <si>
-    <t>DONE</t>
-  </si>
-  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>test2 (on server)</t>
-  </si>
-  <si>
-    <t>test1 (on local)</t>
-  </si>
-  <si>
     <t>./order/confirm</t>
   </si>
   <si>
@@ -186,29 +147,62 @@
     <t>./order/item/remove</t>
   </si>
   <si>
-    <t>./payment/edit</t>
-  </si>
-  <si>
     <t>./media/image/</t>
   </si>
   <si>
     <t>./medial/image/add</t>
   </si>
   <si>
-    <t>* 36. ./history/customer/order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customer_name, </t>
-  </si>
-  <si>
     <t>./history</t>
+  </si>
+  <si>
+    <t>./order/shipment/edit</t>
+  </si>
+  <si>
+    <t>./order/payment/edit</t>
+  </si>
+  <si>
+    <t>* add default cus_shoprated as NULL</t>
+  </si>
+  <si>
+    <t>External Library</t>
+  </si>
+  <si>
+    <t>Localhost</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>* deny token</t>
+  </si>
+  <si>
+    <t>./shop/comment/add</t>
+  </si>
+  <si>
+    <t>./shop/comment/edit</t>
+  </si>
+  <si>
+    <t>jwt-token</t>
+  </si>
+  <si>
+    <t>./shop/comment/delete</t>
+  </si>
+  <si>
+    <t>./shop/comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,31 +231,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -272,6 +268,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -452,13 +460,122 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -466,144 +583,49 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DE177A-7FEF-48EA-B8AD-276CB4A222C6}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -936,43 +958,41 @@
     <col min="7" max="7" width="9.75" customWidth="1"/>
     <col min="8" max="8" width="9.875" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="17.625" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="11" max="11" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="49" t="s">
+    <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="48"/>
+      <c r="K1" s="49"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
@@ -980,1064 +1000,1075 @@
         <v>2</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H4" s="5"/>
+      <c r="I4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H5" s="5"/>
+      <c r="I5" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H6" s="5"/>
+      <c r="I6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H7" s="5"/>
+      <c r="I7" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H8" s="5"/>
+      <c r="I8" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H9" s="5"/>
+      <c r="I9" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H10" s="5"/>
+      <c r="I10" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="28"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H11" s="5"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="20" t="s">
+      <c r="H12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="28"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="28"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G14" s="2"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="28"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H15" s="5"/>
+      <c r="I15" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>15</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="28"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="28"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C17" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
+      <c r="C18" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="28"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
+      <c r="C19" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="28"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H19" s="5"/>
+      <c r="I19" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
+      <c r="C20" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="18"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
+      <c r="C21" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="45"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H21" s="5"/>
+      <c r="I21" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="18"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
+      <c r="C22" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H22" s="5"/>
+      <c r="I22" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="18"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
+      <c r="C23" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H23" s="5"/>
+      <c r="I23" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="18"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
+      <c r="C24" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K24" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H24" s="5"/>
+      <c r="I24" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" s="18"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
+      <c r="C25" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
       <c r="F25" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K25" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H25" s="6"/>
+      <c r="I25" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="18"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
+      <c r="C26" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="54"/>
+      <c r="E26" s="55"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K26" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H26" s="6"/>
+      <c r="I26" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="18"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
+      <c r="C27" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K27" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H27" s="6"/>
+      <c r="I27" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" s="18"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
+      <c r="C28" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="25" t="s">
+      <c r="H28" s="6"/>
+      <c r="I28" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="18"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
+        <v>27</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="18"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
+        <v>28</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="J28" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K28" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K29" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K30" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D30" s="57"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="36"/>
+      <c r="I30" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="18"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="45"/>
+      <c r="E31" s="46"/>
       <c r="F31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K31" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="18"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K32" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G32" s="2"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="18"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="45"/>
+      <c r="E33" s="46"/>
       <c r="F33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K33" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H33" s="5"/>
+      <c r="I33" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="18"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="45"/>
+      <c r="E34" s="46"/>
       <c r="F34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K34" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="18"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="45"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="18"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
+        <v>34</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H35" s="18"/>
-      <c r="I35" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J35" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K35" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="2"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="18"/>
-      <c r="I36" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K36" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="2"/>
-      <c r="H37" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I37" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J37" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K37" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="28"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>37</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="17" t="s">
+      <c r="H36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="18"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>1</v>
+      </c>
+      <c r="B39" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J39" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K39" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="32">
-        <v>38</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="J40" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="K40" s="37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>54</v>
-      </c>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
+  <mergeCells count="40">
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
@@ -2045,9 +2076,14 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/document-test.xlsx
+++ b/document-test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61011\Desktop\mini-plant-app\mini-plant-service-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DC07C5-6518-4E1A-A386-C33CF573776C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C808C94-6A49-4FC6-BD4C-7737178FE723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{0516D730-BA96-42EA-9942-EA5C8FA89769}"/>
+    <workbookView xWindow="19080" yWindow="6390" windowWidth="20730" windowHeight="11310" xr2:uid="{0516D730-BA96-42EA-9942-EA5C8FA89769}"/>
   </bookViews>
   <sheets>
     <sheet name="draft 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="55">
   <si>
     <t>Functions</t>
   </si>
@@ -162,9 +162,6 @@
     <t>./order/payment/edit</t>
   </si>
   <si>
-    <t>* add default cus_shoprated as NULL</t>
-  </si>
-  <si>
     <t>External Library</t>
   </si>
   <si>
@@ -196,6 +193,12 @@
   </si>
   <si>
     <t>./shop/comment</t>
+  </si>
+  <si>
+    <t>* generate token (in key iat)</t>
+  </si>
+  <si>
+    <t>* default cus_shoprated as NULL</t>
   </si>
 </sst>
 </file>
@@ -554,6 +557,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -593,40 +603,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -943,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DE177A-7FEF-48EA-B8AD-276CB4A222C6}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -963,36 +966,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="47" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="49"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="51"/>
+      <c r="K1" s="52"/>
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1003,13 +1006,13 @@
         <v>21</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
@@ -1021,11 +1024,11 @@
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1053,11 +1056,11 @@
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
         <v>6</v>
@@ -1081,11 +1084,11 @@
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
         <v>6</v>
@@ -1109,11 +1112,11 @@
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1137,11 +1140,11 @@
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1165,11 +1168,11 @@
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1193,11 +1196,11 @@
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1221,11 +1224,11 @@
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1242,7 +1245,9 @@
       <c r="K10" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="18"/>
+      <c r="L10" s="18" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -1251,11 +1256,11 @@
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1267,7 +1272,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="9"/>
       <c r="L11" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1277,11 +1282,11 @@
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="5" t="s">
@@ -1297,7 +1302,7 @@
         <v>31</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1307,11 +1312,11 @@
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1327,7 +1332,9 @@
       <c r="J13" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="9"/>
+      <c r="K13" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1337,11 +1344,11 @@
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1353,7 +1360,9 @@
       <c r="J14" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="9"/>
+      <c r="K14" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1361,13 +1370,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
         <v>6</v>
@@ -1379,7 +1388,9 @@
       <c r="J15" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="9"/>
+      <c r="K15" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1389,11 +1400,11 @@
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
+      <c r="C16" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
       <c r="F16" s="2" t="s">
         <v>6</v>
       </c>
@@ -1409,7 +1420,9 @@
       <c r="J16" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="9"/>
+      <c r="K16" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="L16" s="18"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1419,11 +1432,11 @@
       <c r="B17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
+      <c r="C17" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
       <c r="F17" s="11" t="s">
         <v>6</v>
       </c>
@@ -1437,7 +1450,9 @@
       <c r="J17" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="9"/>
+      <c r="K17" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="L17" s="18"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1447,11 +1462,11 @@
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
+      <c r="C18" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
       <c r="F18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1465,7 +1480,9 @@
       <c r="J18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="9"/>
+      <c r="K18" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1475,11 +1492,11 @@
       <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
+      <c r="C19" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="2" t="s">
         <v>6</v>
       </c>
@@ -1491,7 +1508,9 @@
       <c r="J19" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="9"/>
+      <c r="K19" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="L19" s="18"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1501,11 +1520,11 @@
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
       <c r="F20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1533,11 +1552,11 @@
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="2" t="s">
         <v>6</v>
       </c>
@@ -1561,11 +1580,11 @@
       <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
       <c r="F22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1589,11 +1608,11 @@
       <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="46"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="2" t="s">
         <v>6</v>
       </c>
@@ -1619,11 +1638,11 @@
       <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
         <v>6</v>
@@ -1647,11 +1666,11 @@
       <c r="B25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="55"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
       <c r="F25" s="4" t="s">
         <v>6</v>
       </c>
@@ -1677,11 +1696,11 @@
       <c r="B26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="55"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
         <v>6</v>
@@ -1705,11 +1724,11 @@
       <c r="B27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
         <v>6</v>
@@ -1733,11 +1752,11 @@
       <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="46"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
         <v>6</v>
@@ -1761,11 +1780,11 @@
       <c r="B29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="64"/>
       <c r="F29" s="4" t="s">
         <v>6</v>
       </c>
@@ -1789,11 +1808,11 @@
       <c r="B30" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="58"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
       <c r="F30" s="16"/>
       <c r="G30" s="17" t="s">
         <v>6</v>
@@ -1817,11 +1836,11 @@
       <c r="B31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="46"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
       <c r="F31" s="2" t="s">
         <v>6</v>
       </c>
@@ -1849,11 +1868,11 @@
       <c r="B32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1877,11 +1896,11 @@
       <c r="B33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49"/>
       <c r="F33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1905,11 +1924,11 @@
       <c r="B34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="46"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="49"/>
       <c r="F34" s="2" t="s">
         <v>6</v>
       </c>
@@ -1929,11 +1948,11 @@
       <c r="B35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="46"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="49"/>
       <c r="F35" s="10" t="s">
         <v>6</v>
       </c>
@@ -1961,11 +1980,11 @@
       <c r="B36" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="61"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="58"/>
       <c r="F36" s="2" t="s">
         <v>6</v>
       </c>
@@ -1991,7 +2010,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="34"/>
       <c r="D38" s="34"/>
@@ -2000,29 +2019,29 @@
       <c r="G38" s="34"/>
       <c r="H38" s="35"/>
       <c r="I38" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J38" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K38" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="K38" s="19" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>1</v>
       </c>
-      <c r="B39" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="62" t="s">
+      <c r="B39" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="37" t="s">
         <v>31</v>
       </c>
       <c r="J39" s="7"/>
@@ -2037,10 +2056,10 @@
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
       <c r="H41" s="22"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="64"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="40">

--- a/document-test.xlsx
+++ b/document-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61011\Desktop\mini-plant-app\mini-plant-service-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C808C94-6A49-4FC6-BD4C-7737178FE723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2DE267-8B33-452C-9478-EE63B3641265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19080" yWindow="6390" windowWidth="20730" windowHeight="11310" xr2:uid="{0516D730-BA96-42EA-9942-EA5C8FA89769}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="55">
   <si>
     <t>Functions</t>
   </si>
@@ -564,72 +564,72 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -946,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DE177A-7FEF-48EA-B8AD-276CB4A222C6}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -966,36 +966,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="50" t="s">
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="50" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="60"/>
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1024,11 +1024,11 @@
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1056,11 +1056,11 @@
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
         <v>6</v>
@@ -1084,11 +1084,11 @@
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
         <v>6</v>
@@ -1112,11 +1112,11 @@
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1140,11 +1140,11 @@
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1168,11 +1168,11 @@
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1196,11 +1196,11 @@
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1224,11 +1224,11 @@
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1256,11 +1256,11 @@
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1282,11 +1282,11 @@
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="5" t="s">
@@ -1312,11 +1312,11 @@
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1344,11 +1344,11 @@
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
       <c r="F14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1372,11 +1372,11 @@
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
         <v>6</v>
@@ -1400,11 +1400,11 @@
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
       <c r="F16" s="2" t="s">
         <v>6</v>
       </c>
@@ -1432,11 +1432,11 @@
       <c r="B17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="67"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="11" t="s">
         <v>6</v>
       </c>
@@ -1462,11 +1462,11 @@
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1492,11 +1492,11 @@
       <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="2" t="s">
         <v>6</v>
       </c>
@@ -1520,11 +1520,11 @@
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1552,11 +1552,11 @@
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="2" t="s">
         <v>6</v>
       </c>
@@ -1580,11 +1580,11 @@
       <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
       <c r="F22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1608,11 +1608,11 @@
       <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
       <c r="F23" s="2" t="s">
         <v>6</v>
       </c>
@@ -1638,11 +1638,11 @@
       <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
         <v>6</v>
@@ -1666,11 +1666,11 @@
       <c r="B25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="60"/>
-      <c r="E25" s="61"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="42"/>
       <c r="F25" s="4" t="s">
         <v>6</v>
       </c>
@@ -1696,11 +1696,11 @@
       <c r="B26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="61"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="42"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
         <v>6</v>
@@ -1724,11 +1724,11 @@
       <c r="B27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="61"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="42"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
         <v>6</v>
@@ -1752,11 +1752,11 @@
       <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
         <v>6</v>
@@ -1780,11 +1780,11 @@
       <c r="B29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="64"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
       <c r="F29" s="4" t="s">
         <v>6</v>
       </c>
@@ -1808,11 +1808,11 @@
       <c r="B30" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="64"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57"/>
       <c r="F30" s="16"/>
       <c r="G30" s="17" t="s">
         <v>6</v>
@@ -1836,11 +1836,11 @@
       <c r="B31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="48"/>
       <c r="F31" s="2" t="s">
         <v>6</v>
       </c>
@@ -1868,11 +1868,11 @@
       <c r="B32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="48"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1896,11 +1896,11 @@
       <c r="B33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
       <c r="F33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1924,11 +1924,11 @@
       <c r="B34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="49"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="2" t="s">
         <v>6</v>
       </c>
@@ -1936,8 +1936,12 @@
         <v>6</v>
       </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="7"/>
+      <c r="I34" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" s="28" t="s">
+        <v>31</v>
+      </c>
       <c r="K34" s="9"/>
       <c r="L34" s="18"/>
     </row>
@@ -1948,11 +1952,11 @@
       <c r="B35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="48"/>
-      <c r="E35" s="49"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="48"/>
       <c r="F35" s="10" t="s">
         <v>6</v>
       </c>
@@ -1980,11 +1984,11 @@
       <c r="B36" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="56" t="s">
+      <c r="C36" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="58"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="54"/>
       <c r="F36" s="2" t="s">
         <v>6</v>
       </c>
@@ -2032,15 +2036,15 @@
       <c r="A39" s="4">
         <v>1</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="55"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="51"/>
       <c r="I39" s="37" t="s">
         <v>31</v>
       </c>
@@ -2063,11 +2067,25 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="C35:E35"/>
@@ -2084,25 +2102,11 @@
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/document-test.xlsx
+++ b/document-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61011\Desktop\mini-plant-app\mini-plant-service-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAAE657-1F20-428E-8E0C-6CD87A3C4E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93917354-75C5-41D1-A96E-F18763DDCD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19080" yWindow="6390" windowWidth="20730" windowHeight="11310" xr2:uid="{0516D730-BA96-42EA-9942-EA5C8FA89769}"/>
   </bookViews>
@@ -548,6 +548,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -555,21 +570,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DE177A-7FEF-48EA-B8AD-276CB4A222C6}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -917,35 +917,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="37" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="22" t="s">
         <v>53</v>
       </c>
@@ -2086,30 +2086,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B39:H39"/>
@@ -2126,6 +2102,30 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/document-test.xlsx
+++ b/document-test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61011\Desktop\mini-plant-app\mini-plant-service-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93917354-75C5-41D1-A96E-F18763DDCD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAF6BAD-1D63-43A3-9D6B-E608A98A4E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19080" yWindow="6390" windowWidth="20730" windowHeight="11310" xr2:uid="{0516D730-BA96-42EA-9942-EA5C8FA89769}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="57">
   <si>
     <t>Functions</t>
   </si>
@@ -84,9 +84,6 @@
     <t>./shop</t>
   </si>
   <si>
-    <t>./shop/rating</t>
-  </si>
-  <si>
     <t>./shop/edit</t>
   </si>
   <si>
@@ -202,6 +199,12 @@
   </si>
   <si>
     <t>* generate token (random iat)</t>
+  </si>
+  <si>
+    <t>./shop/rate</t>
+  </si>
+  <si>
+    <t>./shop/rate/edit</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -548,6 +551,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,15 +573,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -580,6 +583,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DE177A-7FEF-48EA-B8AD-276CB4A222C6}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -917,55 +926,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="38" t="s">
+      <c r="A1" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="44"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="38"/>
+      <c r="K1" s="39"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -992,13 +1001,13 @@
         <v>4</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="3"/>
     </row>
@@ -1022,13 +1031,13 @@
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" s="3"/>
     </row>
@@ -1052,13 +1061,13 @@
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L5" s="3"/>
     </row>
@@ -1084,13 +1093,13 @@
         <v>4</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L6" s="3"/>
     </row>
@@ -1114,13 +1123,13 @@
       <c r="G7" s="23"/>
       <c r="H7" s="25"/>
       <c r="I7" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" s="3"/>
     </row>
@@ -1144,13 +1153,13 @@
       <c r="G8" s="23"/>
       <c r="H8" s="25"/>
       <c r="I8" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L8" s="3"/>
     </row>
@@ -1174,13 +1183,13 @@
       <c r="G9" s="23"/>
       <c r="H9" s="25"/>
       <c r="I9" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L9" s="3"/>
     </row>
@@ -1204,16 +1213,16 @@
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1238,16 +1247,16 @@
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1268,16 +1277,16 @@
         <v>4</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1302,13 +1311,13 @@
         <v>4</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L13" s="3"/>
     </row>
@@ -1320,7 +1329,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="23" t="s">
@@ -1332,13 +1341,13 @@
       <c r="G14" s="23"/>
       <c r="H14" s="25"/>
       <c r="I14" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L14" s="3"/>
     </row>
@@ -1347,28 +1356,30 @@
         <v>13</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="23"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="49"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23" t="s">
+        <v>4</v>
+      </c>
       <c r="G15" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="25"/>
+      <c r="H15" s="25" t="s">
+        <v>4</v>
+      </c>
       <c r="I15" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L15" s="3"/>
     </row>
@@ -1377,62 +1388,60 @@
         <v>14</v>
       </c>
       <c r="B16" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="23">
+        <v>15</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="28">
-        <v>15</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="23" t="s">
-        <v>4</v>
-      </c>
+      <c r="C17" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="23" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="29"/>
+      <c r="H17" s="25" t="s">
+        <v>4</v>
+      </c>
       <c r="I17" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L17" s="3"/>
     </row>
@@ -1440,13 +1449,13 @@
       <c r="A18" s="23">
         <v>16</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="34"/>
+      <c r="C18" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="36"/>
       <c r="E18" s="23" t="s">
         <v>4</v>
       </c>
@@ -1456,15 +1465,15 @@
       <c r="G18" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="25"/>
+      <c r="H18" s="29"/>
       <c r="I18" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L18" s="3"/>
     </row>
@@ -1473,10 +1482,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="34"/>
       <c r="E19" s="23" t="s">
@@ -1490,13 +1499,13 @@
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L19" s="3"/>
     </row>
@@ -1505,30 +1514,30 @@
         <v>18</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D20" s="34"/>
-      <c r="E20" s="23"/>
+      <c r="E20" s="23" t="s">
+        <v>4</v>
+      </c>
       <c r="F20" s="23" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="25" t="s">
-        <v>4</v>
-      </c>
+      <c r="H20" s="25"/>
       <c r="I20" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L20" s="3"/>
     </row>
@@ -1537,28 +1546,30 @@
         <v>19</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D21" s="34"/>
-      <c r="E21" s="23" t="s">
-        <v>4</v>
-      </c>
+      <c r="E21" s="23"/>
       <c r="F21" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="25"/>
+      <c r="G21" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>4</v>
+      </c>
       <c r="I21" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L21" s="3"/>
     </row>
@@ -1567,10 +1578,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22" s="34"/>
       <c r="E22" s="23" t="s">
@@ -1582,13 +1593,13 @@
       <c r="G22" s="23"/>
       <c r="H22" s="25"/>
       <c r="I22" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L22" s="3"/>
     </row>
@@ -1597,10 +1608,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D23" s="34"/>
       <c r="E23" s="23" t="s">
@@ -1609,18 +1620,16 @@
       <c r="F23" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="23" t="s">
-        <v>4</v>
-      </c>
+      <c r="G23" s="23"/>
       <c r="H23" s="25"/>
       <c r="I23" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L23" s="3"/>
     </row>
@@ -1629,28 +1638,30 @@
         <v>22</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D24" s="34"/>
       <c r="E24" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="s">
+        <v>4</v>
+      </c>
       <c r="G24" s="23" t="s">
         <v>4</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L24" s="3"/>
     </row>
@@ -1658,31 +1669,29 @@
       <c r="A25" s="23">
         <v>23</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="36"/>
+      <c r="B25" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="34"/>
       <c r="E25" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="31"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="25"/>
       <c r="I25" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L25" s="3"/>
     </row>
@@ -1691,7 +1700,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C26" s="35" t="s">
         <v>28</v>
@@ -1700,19 +1709,21 @@
       <c r="E26" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="30"/>
+      <c r="F26" s="30" t="s">
+        <v>4</v>
+      </c>
       <c r="G26" s="30" t="s">
         <v>4</v>
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L26" s="3"/>
     </row>
@@ -1721,10 +1732,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D27" s="36"/>
       <c r="E27" s="23" t="s">
@@ -1736,13 +1747,13 @@
       </c>
       <c r="H27" s="31"/>
       <c r="I27" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L27" s="3"/>
     </row>
@@ -1750,13 +1761,13 @@
       <c r="A28" s="23">
         <v>26</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="34"/>
+      <c r="B28" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="36"/>
       <c r="E28" s="23" t="s">
         <v>4</v>
       </c>
@@ -1766,73 +1777,73 @@
       </c>
       <c r="H28" s="31"/>
       <c r="I28" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="28">
+      <c r="A29" s="23">
         <v>27</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="36"/>
+      <c r="B29" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="34"/>
       <c r="E29" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="32"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="31"/>
       <c r="I29" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="28">
+      <c r="A30" s="23">
         <v>28</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D30" s="36"/>
       <c r="E30" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30" t="s">
-        <v>4</v>
-      </c>
+      <c r="F30" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="29"/>
       <c r="H30" s="32"/>
       <c r="I30" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L30" s="3"/>
     </row>
@@ -1840,31 +1851,29 @@
       <c r="A31" s="23">
         <v>29</v>
       </c>
-      <c r="B31" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>4</v>
-      </c>
+      <c r="B31" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="36"/>
+      <c r="E31" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="32"/>
       <c r="I31" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L31" s="3"/>
     </row>
@@ -1873,28 +1882,30 @@
         <v>30</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D32" s="34"/>
-      <c r="E32" s="23" t="s">
-        <v>4</v>
-      </c>
+      <c r="E32" s="23"/>
       <c r="F32" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="23"/>
-      <c r="H32" s="25"/>
+      <c r="G32" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>4</v>
+      </c>
       <c r="I32" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L32" s="3"/>
     </row>
@@ -1903,10 +1914,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D33" s="34"/>
       <c r="E33" s="23" t="s">
@@ -1918,13 +1929,13 @@
       <c r="G33" s="23"/>
       <c r="H33" s="25"/>
       <c r="I33" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L33" s="3"/>
     </row>
@@ -1933,10 +1944,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D34" s="34"/>
       <c r="E34" s="23" t="s">
@@ -1945,18 +1956,16 @@
       <c r="F34" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G34" s="23" t="s">
-        <v>4</v>
-      </c>
+      <c r="G34" s="23"/>
       <c r="H34" s="25"/>
       <c r="I34" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L34" s="3"/>
     </row>
@@ -1968,27 +1977,27 @@
         <v>12</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D35" s="34"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>4</v>
-      </c>
+      <c r="E35" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="25"/>
       <c r="I35" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L35" s="3"/>
     </row>
@@ -1997,111 +2006,150 @@
         <v>34</v>
       </c>
       <c r="B36" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="34"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="23">
+        <v>35</v>
+      </c>
+      <c r="B37" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J36" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K36" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L36" s="3"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="17" t="s">
+      <c r="C37" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="34"/>
+      <c r="E37" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="25"/>
+      <c r="I37" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J38" s="4" t="s">
+      <c r="K39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K38" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="30">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="30">
         <v>1</v>
       </c>
-      <c r="B39" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K39" s="16" t="s">
-        <v>26</v>
+      <c r="B40" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
       <c r="L41" s="21"/>
     </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B39:H39"/>
+  <mergeCells count="41">
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C1:D2"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="C9:D9"/>
@@ -2110,22 +2158,17 @@
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/document-test.xlsx
+++ b/document-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61011\Desktop\mini-plant-app\mini-plant-service-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAF6BAD-1D63-43A3-9D6B-E608A98A4E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900063F2-DEB2-4710-9BFD-ABE76DD193D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19080" yWindow="6390" windowWidth="20730" windowHeight="11310" xr2:uid="{0516D730-BA96-42EA-9942-EA5C8FA89769}"/>
   </bookViews>
@@ -544,6 +544,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -551,6 +566,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -559,36 +589,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DE177A-7FEF-48EA-B8AD-276CB4A222C6}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -926,35 +926,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="37" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="49"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="22" t="s">
         <v>52</v>
       </c>
@@ -986,10 +986,10 @@
       <c r="B3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24" t="s">
         <v>4</v>
@@ -1018,10 +1018,10 @@
       <c r="B4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
@@ -1048,10 +1048,10 @@
       <c r="B5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="23" t="s">
         <v>4</v>
       </c>
@@ -1078,10 +1078,10 @@
       <c r="B6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="23"/>
       <c r="F6" s="23" t="s">
         <v>4</v>
@@ -1110,10 +1110,10 @@
       <c r="B7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="23" t="s">
         <v>4</v>
       </c>
@@ -1140,10 +1140,10 @@
       <c r="B8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="23" t="s">
         <v>4</v>
       </c>
@@ -1170,10 +1170,10 @@
       <c r="B9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="23" t="s">
         <v>4</v>
       </c>
@@ -1200,10 +1200,10 @@
       <c r="B10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23" t="s">
         <v>4</v>
@@ -1232,10 +1232,10 @@
       <c r="B11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="23" t="s">
         <v>4</v>
       </c>
@@ -1266,10 +1266,10 @@
       <c r="B12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
@@ -1296,10 +1296,10 @@
       <c r="B13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="34"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23" t="s">
         <v>4</v>
@@ -1328,10 +1328,10 @@
       <c r="B14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="23" t="s">
         <v>4</v>
       </c>
@@ -1358,10 +1358,10 @@
       <c r="B15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="49"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23" t="s">
         <v>4</v>
@@ -1390,10 +1390,10 @@
       <c r="B16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="23" t="s">
         <v>4</v>
       </c>
@@ -1420,10 +1420,10 @@
       <c r="B17" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="34"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23" t="s">
         <v>4</v>
@@ -1452,10 +1452,10 @@
       <c r="B18" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="36"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="23" t="s">
         <v>4</v>
       </c>
@@ -1484,10 +1484,10 @@
       <c r="B19" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="34"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="23" t="s">
         <v>4</v>
       </c>
@@ -1516,10 +1516,10 @@
       <c r="B20" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="34"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="23" t="s">
         <v>4</v>
       </c>
@@ -1548,10 +1548,10 @@
       <c r="B21" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23" t="s">
         <v>4</v>
@@ -1580,10 +1580,10 @@
       <c r="B22" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="34"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="23" t="s">
         <v>4</v>
       </c>
@@ -1610,10 +1610,10 @@
       <c r="B23" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="23" t="s">
         <v>4</v>
       </c>
@@ -1640,10 +1640,10 @@
       <c r="B24" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="34"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="23" t="s">
         <v>4</v>
       </c>
@@ -1672,10 +1672,10 @@
       <c r="B25" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="34"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="23" t="s">
         <v>4</v>
       </c>
@@ -1702,10 +1702,10 @@
       <c r="B26" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="36"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="23" t="s">
         <v>4</v>
       </c>
@@ -1734,10 +1734,10 @@
       <c r="B27" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="36"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="23" t="s">
         <v>4</v>
       </c>
@@ -1764,10 +1764,10 @@
       <c r="B28" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="36"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="23" t="s">
         <v>4</v>
       </c>
@@ -1794,10 +1794,10 @@
       <c r="B29" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="34"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="23" t="s">
         <v>4</v>
       </c>
@@ -1824,10 +1824,10 @@
       <c r="B30" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="36"/>
+      <c r="D30" s="41"/>
       <c r="E30" s="23" t="s">
         <v>4</v>
       </c>
@@ -1854,10 +1854,10 @@
       <c r="B31" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="36"/>
+      <c r="D31" s="41"/>
       <c r="E31" s="23" t="s">
         <v>4</v>
       </c>
@@ -1884,10 +1884,10 @@
       <c r="B32" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="34"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23" t="s">
         <v>4</v>
@@ -1916,10 +1916,10 @@
       <c r="B33" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="34"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="23" t="s">
         <v>4</v>
       </c>
@@ -1946,10 +1946,10 @@
       <c r="B34" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="34"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="23" t="s">
         <v>4</v>
       </c>
@@ -1976,10 +1976,10 @@
       <c r="B35" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="34"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="23" t="s">
         <v>4</v>
       </c>
@@ -2008,10 +2008,10 @@
       <c r="B36" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="34"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="23"/>
       <c r="F36" s="26" t="s">
         <v>4</v>
@@ -2040,10 +2040,10 @@
       <c r="B37" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="34"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="23" t="s">
         <v>4</v>
       </c>
@@ -2091,15 +2091,15 @@
       <c r="A40" s="30">
         <v>1</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="47"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="35"/>
       <c r="I40" s="14" t="s">
         <v>25</v>
       </c>
@@ -2128,6 +2128,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C1:D2"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C14:D14"/>
@@ -2144,31 +2169,6 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/document-test.xlsx
+++ b/document-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61011\Desktop\mini-plant-app\mini-plant-service-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900063F2-DEB2-4710-9BFD-ABE76DD193D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4AE6B0-D9D0-4DAC-8036-BD88AC0533EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19080" yWindow="6390" windowWidth="20730" windowHeight="11310" xr2:uid="{0516D730-BA96-42EA-9942-EA5C8FA89769}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="59">
   <si>
     <t>Functions</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>./shop/rate/edit</t>
+  </si>
+  <si>
+    <t>./promotion/related_to_product/add</t>
+  </si>
+  <si>
+    <t>./promotion/related_to_product/remove</t>
   </si>
 </sst>
 </file>
@@ -544,6 +550,38 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,38 +595,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -904,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DE177A-7FEF-48EA-B8AD-276CB4A222C6}">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -915,7 +921,7 @@
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
     <col min="5" max="5" width="9.75" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="9.75" customWidth="1"/>
@@ -926,35 +932,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="47" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="47" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="49"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="39"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="22" t="s">
         <v>52</v>
       </c>
@@ -986,10 +992,10 @@
       <c r="B3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="39"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24" t="s">
         <v>4</v>
@@ -1018,10 +1024,10 @@
       <c r="B4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
@@ -1048,10 +1054,10 @@
       <c r="B5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="23" t="s">
         <v>4</v>
       </c>
@@ -1078,10 +1084,10 @@
       <c r="B6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="23"/>
       <c r="F6" s="23" t="s">
         <v>4</v>
@@ -1110,10 +1116,10 @@
       <c r="B7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="39"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="23" t="s">
         <v>4</v>
       </c>
@@ -1140,10 +1146,10 @@
       <c r="B8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="39"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="23" t="s">
         <v>4</v>
       </c>
@@ -1170,10 +1176,10 @@
       <c r="B9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="39"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="23" t="s">
         <v>4</v>
       </c>
@@ -1200,10 +1206,10 @@
       <c r="B10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23" t="s">
         <v>4</v>
@@ -1232,10 +1238,10 @@
       <c r="B11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="23" t="s">
         <v>4</v>
       </c>
@@ -1266,10 +1272,10 @@
       <c r="B12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="39"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
@@ -1296,10 +1302,10 @@
       <c r="B13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="39"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23" t="s">
         <v>4</v>
@@ -1328,10 +1334,10 @@
       <c r="B14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="23" t="s">
         <v>4</v>
       </c>
@@ -1358,10 +1364,10 @@
       <c r="B15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="37"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23" t="s">
         <v>4</v>
@@ -1390,10 +1396,10 @@
       <c r="B16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="23" t="s">
         <v>4</v>
       </c>
@@ -1420,10 +1426,10 @@
       <c r="B17" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23" t="s">
         <v>4</v>
@@ -1452,10 +1458,10 @@
       <c r="B18" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="41"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="23" t="s">
         <v>4</v>
       </c>
@@ -1484,10 +1490,10 @@
       <c r="B19" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="39"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="23" t="s">
         <v>4</v>
       </c>
@@ -1516,10 +1522,10 @@
       <c r="B20" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="39"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="23" t="s">
         <v>4</v>
       </c>
@@ -1548,10 +1554,10 @@
       <c r="B21" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="39"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23" t="s">
         <v>4</v>
@@ -1580,10 +1586,10 @@
       <c r="B22" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="39"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="23" t="s">
         <v>4</v>
       </c>
@@ -1610,10 +1616,10 @@
       <c r="B23" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="23" t="s">
         <v>4</v>
       </c>
@@ -1640,10 +1646,10 @@
       <c r="B24" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="39"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="23" t="s">
         <v>4</v>
       </c>
@@ -1672,10 +1678,10 @@
       <c r="B25" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="39"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="23" t="s">
         <v>4</v>
       </c>
@@ -1702,10 +1708,10 @@
       <c r="B26" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="41"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="23" t="s">
         <v>4</v>
       </c>
@@ -1734,10 +1740,10 @@
       <c r="B27" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="41"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="23" t="s">
         <v>4</v>
       </c>
@@ -1764,10 +1770,10 @@
       <c r="B28" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="41"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="23" t="s">
         <v>4</v>
       </c>
@@ -1794,10 +1800,10 @@
       <c r="B29" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="39"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="23" t="s">
         <v>4</v>
       </c>
@@ -1824,10 +1830,10 @@
       <c r="B30" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="41"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="23" t="s">
         <v>4</v>
       </c>
@@ -1854,10 +1860,10 @@
       <c r="B31" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="41"/>
+      <c r="D31" s="36"/>
       <c r="E31" s="23" t="s">
         <v>4</v>
       </c>
@@ -1884,10 +1890,10 @@
       <c r="B32" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="39"/>
+      <c r="D32" s="34"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23" t="s">
         <v>4</v>
@@ -1916,10 +1922,10 @@
       <c r="B33" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="39"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="23" t="s">
         <v>4</v>
       </c>
@@ -1946,10 +1952,10 @@
       <c r="B34" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="39"/>
+      <c r="D34" s="34"/>
       <c r="E34" s="23" t="s">
         <v>4</v>
       </c>
@@ -1974,21 +1980,19 @@
         <v>33</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="39"/>
+        <v>14</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="49"/>
       <c r="E35" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="23" t="s">
-        <v>4</v>
-      </c>
+      <c r="G35" s="23"/>
       <c r="H35" s="25"/>
       <c r="I35" s="11" t="s">
         <v>25</v>
@@ -2006,22 +2010,20 @@
         <v>34</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="23"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="11" t="s">
         <v>25</v>
       </c>
@@ -2038,122 +2040,161 @@
         <v>35</v>
       </c>
       <c r="B37" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="34"/>
+      <c r="E37" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="25"/>
+      <c r="I37" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="23">
+        <v>36</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="34"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="23">
+        <v>37</v>
+      </c>
+      <c r="B39" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C39" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="D39" s="34"/>
+      <c r="E39" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="25"/>
+      <c r="I39" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B41" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="4" t="s">
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="J41" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="K41" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="30">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="30">
         <v>1</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B42" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K40" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L41" s="21"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="21"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="B40:H40"/>
+  <mergeCells count="43">
+    <mergeCell ref="B42:H42"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C16:D16"/>
@@ -2164,11 +2205,38 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/document-test.xlsx
+++ b/document-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61011\Desktop\mini-plant-app\mini-plant-service-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4AE6B0-D9D0-4DAC-8036-BD88AC0533EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C10ADA-89EF-4CF3-9572-83D3BD1F999C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19080" yWindow="6390" windowWidth="20730" windowHeight="11310" xr2:uid="{0516D730-BA96-42EA-9942-EA5C8FA89769}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="64">
   <si>
     <t>Functions</t>
   </si>
@@ -211,6 +211,21 @@
   </si>
   <si>
     <t>./promotion/related_to_product/remove</t>
+  </si>
+  <si>
+    <t>./shop/bank</t>
+  </si>
+  <si>
+    <t>./shop/bank/add</t>
+  </si>
+  <si>
+    <t>./shop/bank/edit</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>./shop/bank/delete</t>
   </si>
 </sst>
 </file>
@@ -557,6 +572,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -589,12 +610,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -910,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DE177A-7FEF-48EA-B8AD-276CB4A222C6}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -932,35 +947,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="41"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="22" t="s">
         <v>52</v>
       </c>
@@ -1364,10 +1379,10 @@
       <c r="B15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="49"/>
+      <c r="C15" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="38"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23" t="s">
         <v>4</v>
@@ -1375,7 +1390,7 @@
       <c r="G15" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="23" t="s">
         <v>4</v>
       </c>
       <c r="I15" s="11" t="s">
@@ -1387,26 +1402,28 @@
       <c r="K15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
         <v>14</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="34"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="38"/>
       <c r="E16" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23" t="s">
-        <v>4</v>
-      </c>
+      <c r="F16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="23"/>
       <c r="H16" s="25"/>
       <c r="I16" s="11" t="s">
         <v>25</v>
@@ -1417,29 +1434,29 @@
       <c r="K16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>15</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="23"/>
+        <v>13</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="23" t="s">
+        <v>4</v>
+      </c>
       <c r="F17" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>4</v>
-      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="11" t="s">
         <v>25</v>
       </c>
@@ -1449,29 +1466,29 @@
       <c r="K17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <v>16</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="36"/>
+      <c r="C18" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="38"/>
       <c r="E18" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="29"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="11" t="s">
         <v>25</v>
       </c>
@@ -1481,29 +1498,31 @@
       <c r="K18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>17</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="23" t="s">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="23" t="s">
         <v>4</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="25"/>
+      <c r="H19" s="25" t="s">
+        <v>4</v>
+      </c>
       <c r="I19" s="11" t="s">
         <v>25</v>
       </c>
@@ -1523,15 +1542,13 @@
         <v>13</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="23" t="s">
-        <v>4</v>
-      </c>
+      <c r="F20" s="23"/>
       <c r="G20" s="23" t="s">
         <v>4</v>
       </c>
@@ -1555,7 +1572,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D21" s="34"/>
       <c r="E21" s="23"/>
@@ -1583,21 +1600,23 @@
       <c r="A22" s="23">
         <v>20</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="34"/>
+      <c r="C22" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="36"/>
       <c r="E22" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="25"/>
+      <c r="G22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="29"/>
       <c r="I22" s="11" t="s">
         <v>25</v>
       </c>
@@ -1614,10 +1633,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D23" s="34"/>
       <c r="E23" s="23" t="s">
@@ -1626,7 +1645,9 @@
       <c r="F23" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="23"/>
+      <c r="G23" s="23" t="s">
+        <v>4</v>
+      </c>
       <c r="H23" s="25"/>
       <c r="I23" s="11" t="s">
         <v>25</v>
@@ -1644,10 +1665,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D24" s="34"/>
       <c r="E24" s="23" t="s">
@@ -1676,20 +1697,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D25" s="34"/>
-      <c r="E25" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23" t="s">
+        <v>4</v>
+      </c>
       <c r="G25" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="25"/>
+      <c r="H25" s="25" t="s">
+        <v>4</v>
+      </c>
       <c r="I25" s="11" t="s">
         <v>25</v>
       </c>
@@ -1705,23 +1728,21 @@
       <c r="A26" s="23">
         <v>24</v>
       </c>
-      <c r="B26" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="36"/>
+      <c r="B26" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="34"/>
       <c r="E26" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="31"/>
+      <c r="F26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="25"/>
       <c r="I26" s="11" t="s">
         <v>25</v>
       </c>
@@ -1737,21 +1758,21 @@
       <c r="A27" s="23">
         <v>25</v>
       </c>
-      <c r="B27" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="36"/>
+      <c r="B27" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="34"/>
       <c r="E27" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="31"/>
+      <c r="F27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="23"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="11" t="s">
         <v>25</v>
       </c>
@@ -1767,21 +1788,23 @@
       <c r="A28" s="23">
         <v>26</v>
       </c>
-      <c r="B28" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="36"/>
+      <c r="B28" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="34"/>
       <c r="E28" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="31"/>
+      <c r="F28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="25"/>
       <c r="I28" s="11" t="s">
         <v>25</v>
       </c>
@@ -1801,17 +1824,17 @@
         <v>14</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D29" s="34"/>
       <c r="E29" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="31"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="25"/>
       <c r="I29" s="11" t="s">
         <v>25</v>
       </c>
@@ -1828,10 +1851,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D30" s="36"/>
       <c r="E30" s="23" t="s">
@@ -1840,8 +1863,10 @@
       <c r="F30" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="32"/>
+      <c r="G30" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="31"/>
       <c r="I30" s="11" t="s">
         <v>25</v>
       </c>
@@ -1858,20 +1883,20 @@
         <v>29</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D31" s="36"/>
       <c r="E31" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="29"/>
+      <c r="F31" s="30"/>
       <c r="G31" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="32"/>
+      <c r="H31" s="31"/>
       <c r="I31" s="11" t="s">
         <v>25</v>
       </c>
@@ -1887,23 +1912,21 @@
       <c r="A32" s="23">
         <v>30</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>4</v>
-      </c>
+      <c r="B32" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="36"/>
+      <c r="E32" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="31"/>
       <c r="I32" s="11" t="s">
         <v>25</v>
       </c>
@@ -1923,17 +1946,17 @@
         <v>14</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D33" s="34"/>
       <c r="E33" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="25"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="31"/>
       <c r="I33" s="11" t="s">
         <v>25</v>
       </c>
@@ -1949,21 +1972,21 @@
       <c r="A34" s="23">
         <v>32</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="34"/>
+      <c r="C34" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="36"/>
       <c r="E34" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F34" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="23"/>
-      <c r="H34" s="25"/>
+      <c r="F34" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="29"/>
+      <c r="H34" s="32"/>
       <c r="I34" s="11" t="s">
         <v>25</v>
       </c>
@@ -1979,21 +2002,21 @@
       <c r="A35" s="23">
         <v>33</v>
       </c>
-      <c r="B35" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="49"/>
+      <c r="B35" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="36"/>
       <c r="E35" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="23"/>
-      <c r="H35" s="25"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="32"/>
       <c r="I35" s="11" t="s">
         <v>25</v>
       </c>
@@ -2010,20 +2033,22 @@
         <v>34</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="49"/>
-      <c r="E36" s="23" t="s">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="34"/>
+      <c r="E36" s="23"/>
       <c r="F36" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="23"/>
-      <c r="H36" s="25"/>
+      <c r="G36" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>4</v>
+      </c>
       <c r="I36" s="11" t="s">
         <v>25</v>
       </c>
@@ -2040,10 +2065,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D37" s="34"/>
       <c r="E37" s="23" t="s">
@@ -2052,9 +2077,7 @@
       <c r="F37" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="23" t="s">
-        <v>4</v>
-      </c>
+      <c r="G37" s="23"/>
       <c r="H37" s="25"/>
       <c r="I37" s="11" t="s">
         <v>25</v>
@@ -2072,22 +2095,20 @@
         <v>36</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D38" s="34"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="H38" s="27" t="s">
-        <v>4</v>
-      </c>
+      <c r="E38" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="23"/>
+      <c r="H38" s="25"/>
       <c r="I38" s="11" t="s">
         <v>25</v>
       </c>
@@ -2106,110 +2127,234 @@
       <c r="B39" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="38"/>
+      <c r="E39" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="23"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="23">
+        <v>38</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="38"/>
+      <c r="E40" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="23"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="23">
+        <v>39</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="34"/>
+      <c r="E41" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="25"/>
+      <c r="I41" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="23">
+        <v>40</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="34"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="23">
+        <v>41</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H39" s="25"/>
-      <c r="I39" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K39" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="D43" s="34"/>
+      <c r="E43" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="25"/>
+      <c r="I43" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B45" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="4" t="s">
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="J45" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="K45" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="30">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="30">
         <v>1</v>
       </c>
-      <c r="B42" s="45" t="s">
+      <c r="B46" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J42" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K42" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L43" s="21"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="21"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="C15:D15"/>
+  <mergeCells count="47">
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C3:D3"/>
@@ -2226,17 +2371,21 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C40:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/document-test.xlsx
+++ b/document-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61011\Desktop\mini-plant-app\mini-plant-service-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C10ADA-89EF-4CF3-9572-83D3BD1F999C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32D08C1-E19D-4323-95B8-BD2FA4E856F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19080" yWindow="6390" windowWidth="20730" windowHeight="11310" xr2:uid="{0516D730-BA96-42EA-9942-EA5C8FA89769}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="65">
   <si>
     <t>Functions</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>./shop/bank/delete</t>
+  </si>
+  <si>
+    <t>./order/edit</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -570,13 +573,43 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -586,30 +619,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -925,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DE177A-7FEF-48EA-B8AD-276CB4A222C6}">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -947,35 +956,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="39" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="39" t="s">
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="41"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="51"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="22" t="s">
         <v>52</v>
       </c>
@@ -1007,10 +1016,10 @@
       <c r="B3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24" t="s">
         <v>4</v>
@@ -1039,10 +1048,10 @@
       <c r="B4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
@@ -1069,10 +1078,10 @@
       <c r="B5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="23" t="s">
         <v>4</v>
       </c>
@@ -1099,10 +1108,10 @@
       <c r="B6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="41"/>
       <c r="E6" s="23"/>
       <c r="F6" s="23" t="s">
         <v>4</v>
@@ -1131,10 +1140,10 @@
       <c r="B7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="23" t="s">
         <v>4</v>
       </c>
@@ -1161,10 +1170,10 @@
       <c r="B8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="23" t="s">
         <v>4</v>
       </c>
@@ -1191,10 +1200,10 @@
       <c r="B9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="23" t="s">
         <v>4</v>
       </c>
@@ -1221,10 +1230,10 @@
       <c r="B10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23" t="s">
         <v>4</v>
@@ -1253,10 +1262,10 @@
       <c r="B11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="23" t="s">
         <v>4</v>
       </c>
@@ -1287,10 +1296,10 @@
       <c r="B12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
@@ -1317,10 +1326,10 @@
       <c r="B13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="34"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23" t="s">
         <v>4</v>
@@ -1349,10 +1358,10 @@
       <c r="B14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="23" t="s">
         <v>4</v>
       </c>
@@ -1379,10 +1388,10 @@
       <c r="B15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="38"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23" t="s">
         <v>4</v>
@@ -1413,10 +1422,10 @@
       <c r="B16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="38"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="23" t="s">
         <v>4</v>
       </c>
@@ -1445,10 +1454,10 @@
       <c r="B17" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="38"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="23" t="s">
         <v>4</v>
       </c>
@@ -1477,10 +1486,10 @@
       <c r="B18" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="38"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="23" t="s">
         <v>4</v>
       </c>
@@ -1509,10 +1518,10 @@
       <c r="B19" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="38"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23" t="s">
         <v>4</v>
@@ -1541,10 +1550,10 @@
       <c r="B20" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="34"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="23" t="s">
         <v>4</v>
       </c>
@@ -1571,10 +1580,10 @@
       <c r="B21" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23" t="s">
         <v>4</v>
@@ -1603,10 +1612,10 @@
       <c r="B22" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="36"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="23" t="s">
         <v>4</v>
       </c>
@@ -1635,10 +1644,10 @@
       <c r="B23" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="23" t="s">
         <v>4</v>
       </c>
@@ -1667,10 +1676,10 @@
       <c r="B24" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="34"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="23" t="s">
         <v>4</v>
       </c>
@@ -1699,10 +1708,10 @@
       <c r="B25" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="34"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="23"/>
       <c r="F25" s="23" t="s">
         <v>4</v>
@@ -1731,10 +1740,10 @@
       <c r="B26" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="34"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="23" t="s">
         <v>4</v>
       </c>
@@ -1761,10 +1770,10 @@
       <c r="B27" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="34"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="23" t="s">
         <v>4</v>
       </c>
@@ -1791,10 +1800,10 @@
       <c r="B28" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="34"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="23" t="s">
         <v>4</v>
       </c>
@@ -1823,14 +1832,16 @@
       <c r="B29" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="34"/>
+      <c r="D29" s="41"/>
       <c r="E29" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="s">
+        <v>4</v>
+      </c>
       <c r="G29" s="23" t="s">
         <v>4</v>
       </c>
@@ -1850,23 +1861,23 @@
       <c r="A30" s="23">
         <v>28</v>
       </c>
-      <c r="B30" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="36"/>
+      <c r="B30" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="34"/>
       <c r="E30" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="31"/>
+      <c r="F30" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="25"/>
       <c r="I30" s="11" t="s">
         <v>25</v>
       </c>
@@ -1883,16 +1894,18 @@
         <v>29</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="36"/>
+        <v>12</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="43"/>
       <c r="E31" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="30"/>
+      <c r="F31" s="30" t="s">
+        <v>4</v>
+      </c>
       <c r="G31" s="30" t="s">
         <v>4</v>
       </c>
@@ -1913,16 +1926,18 @@
         <v>30</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="36"/>
+        <v>14</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="43"/>
       <c r="E32" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="30"/>
+      <c r="F32" s="30" t="s">
+        <v>4</v>
+      </c>
       <c r="G32" s="30" t="s">
         <v>4</v>
       </c>
@@ -1942,17 +1957,19 @@
       <c r="A33" s="23">
         <v>31</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="34"/>
+      <c r="B33" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="43"/>
       <c r="E33" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="30"/>
+      <c r="F33" s="30" t="s">
+        <v>4</v>
+      </c>
       <c r="G33" s="30" t="s">
         <v>4</v>
       </c>
@@ -1972,21 +1989,23 @@
       <c r="A34" s="23">
         <v>32</v>
       </c>
-      <c r="B34" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="36"/>
+      <c r="B34" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="41"/>
       <c r="E34" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="32"/>
+      <c r="G34" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="31"/>
       <c r="I34" s="11" t="s">
         <v>25</v>
       </c>
@@ -2005,17 +2024,17 @@
       <c r="B35" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="36"/>
+      <c r="C35" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="43"/>
       <c r="E35" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30" t="s">
-        <v>4</v>
-      </c>
+      <c r="F35" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="29"/>
       <c r="H35" s="32"/>
       <c r="I35" s="11" t="s">
         <v>25</v>
@@ -2032,23 +2051,21 @@
       <c r="A36" s="23">
         <v>34</v>
       </c>
-      <c r="B36" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>4</v>
-      </c>
+      <c r="B36" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="43"/>
+      <c r="E36" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="32"/>
       <c r="I36" s="11" t="s">
         <v>25</v>
       </c>
@@ -2065,20 +2082,22 @@
         <v>35</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="23" t="s">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="41"/>
+      <c r="E37" s="23"/>
       <c r="F37" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="23"/>
-      <c r="H37" s="25"/>
+      <c r="G37" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>4</v>
+      </c>
       <c r="I37" s="11" t="s">
         <v>25</v>
       </c>
@@ -2095,12 +2114,12 @@
         <v>36</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="34"/>
+        <v>14</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="41"/>
       <c r="E38" s="23" t="s">
         <v>4</v>
       </c>
@@ -2125,12 +2144,12 @@
         <v>37</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="38"/>
+        <v>13</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="41"/>
       <c r="E39" s="23" t="s">
         <v>4</v>
       </c>
@@ -2157,10 +2176,10 @@
       <c r="B40" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="38"/>
+      <c r="C40" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="39"/>
       <c r="E40" s="23" t="s">
         <v>4</v>
       </c>
@@ -2185,21 +2204,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="34"/>
+        <v>14</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="39"/>
       <c r="E41" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="23" t="s">
-        <v>4</v>
-      </c>
+      <c r="G41" s="23"/>
       <c r="H41" s="25"/>
       <c r="I41" s="11" t="s">
         <v>25</v>
@@ -2219,20 +2236,20 @@
       <c r="B42" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="27" t="s">
-        <v>4</v>
-      </c>
+      <c r="C42" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="41"/>
+      <c r="E42" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="25"/>
       <c r="I42" s="11" t="s">
         <v>25</v>
       </c>
@@ -2249,126 +2266,136 @@
         <v>41</v>
       </c>
       <c r="B43" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="41"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="23">
+        <v>42</v>
+      </c>
+      <c r="B44" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C44" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="25"/>
-      <c r="I43" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J43" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K43" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="D44" s="41"/>
+      <c r="E44" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="25"/>
+      <c r="I44" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B46" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="4" t="s">
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="J46" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="K46" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="30">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="30">
         <v>1</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B47" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J46" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K46" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L47" s="21"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" s="16" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
+      <c r="L48" s="21"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C24:D24"/>
@@ -2378,14 +2405,36 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/document-test.xlsx
+++ b/document-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61011\Desktop\mini-plant-app\mini-plant-service-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32D08C1-E19D-4323-95B8-BD2FA4E856F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78900874-8416-47E7-B502-A6D4250DDBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19080" yWindow="6390" windowWidth="20730" windowHeight="11310" xr2:uid="{0516D730-BA96-42EA-9942-EA5C8FA89769}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="66">
   <si>
     <t>Functions</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>./order/edit</t>
+  </si>
+  <si>
+    <t>./user/forget_password</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -574,6 +577,50 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -581,44 +628,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -934,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DE177A-7FEF-48EA-B8AD-276CB4A222C6}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -956,35 +965,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="49" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="49" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="51"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="45"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="22" t="s">
         <v>52</v>
       </c>
@@ -1016,10 +1025,10 @@
       <c r="B3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="41"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24" t="s">
         <v>4</v>
@@ -1048,10 +1057,10 @@
       <c r="B4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
@@ -1078,10 +1087,10 @@
       <c r="B5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="41"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="23" t="s">
         <v>4</v>
       </c>
@@ -1108,10 +1117,10 @@
       <c r="B6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="41"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="23"/>
       <c r="F6" s="23" t="s">
         <v>4</v>
@@ -1140,10 +1149,10 @@
       <c r="B7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="41"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="23" t="s">
         <v>4</v>
       </c>
@@ -1170,10 +1179,10 @@
       <c r="B8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="41"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="23" t="s">
         <v>4</v>
       </c>
@@ -1200,10 +1209,10 @@
       <c r="B9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="41"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="23" t="s">
         <v>4</v>
       </c>
@@ -1230,10 +1239,10 @@
       <c r="B10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="41"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23" t="s">
         <v>4</v>
@@ -1262,10 +1271,10 @@
       <c r="B11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="41"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="23" t="s">
         <v>4</v>
       </c>
@@ -1296,10 +1305,10 @@
       <c r="B12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="41"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
@@ -1324,12 +1333,12 @@
         <v>11</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="41"/>
+        <v>13</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="36"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23" t="s">
         <v>4</v>
@@ -1337,9 +1346,7 @@
       <c r="G13" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="25" t="s">
-        <v>4</v>
-      </c>
+      <c r="H13" s="25"/>
       <c r="I13" s="11" t="s">
         <v>25</v>
       </c>
@@ -1356,20 +1363,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="23" t="s">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="25"/>
+      <c r="G14" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>4</v>
+      </c>
       <c r="I14" s="11" t="s">
         <v>25</v>
       </c>
@@ -1386,22 +1395,20 @@
         <v>13</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="23"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="23" t="s">
+        <v>4</v>
+      </c>
       <c r="F15" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>4</v>
-      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="25"/>
       <c r="I15" s="11" t="s">
         <v>25</v>
       </c>
@@ -1411,29 +1418,29 @@
       <c r="K15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
         <v>14</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="23" t="s">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="42"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="25"/>
+      <c r="G16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>4</v>
+      </c>
       <c r="I16" s="11" t="s">
         <v>25</v>
       </c>
@@ -1452,12 +1459,12 @@
         <v>15</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="39"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="42"/>
       <c r="E17" s="23" t="s">
         <v>4</v>
       </c>
@@ -1484,12 +1491,12 @@
         <v>16</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="39"/>
+        <v>13</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="42"/>
       <c r="E18" s="23" t="s">
         <v>4</v>
       </c>
@@ -1516,22 +1523,20 @@
         <v>17</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="23"/>
+        <v>14</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="E19" s="23" t="s">
+        <v>4</v>
+      </c>
       <c r="F19" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>4</v>
-      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="11" t="s">
         <v>25</v>
       </c>
@@ -1541,27 +1546,31 @@
       <c r="K19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>18</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="23"/>
+        <v>12</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="42"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23" t="s">
+        <v>4</v>
+      </c>
       <c r="G20" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="25"/>
+      <c r="H20" s="25" t="s">
+        <v>4</v>
+      </c>
       <c r="I20" s="11" t="s">
         <v>25</v>
       </c>
@@ -1578,22 +1587,20 @@
         <v>19</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23" t="s">
-        <v>4</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="23"/>
       <c r="G21" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="25" t="s">
-        <v>4</v>
-      </c>
+      <c r="H21" s="25"/>
       <c r="I21" s="11" t="s">
         <v>25</v>
       </c>
@@ -1609,23 +1616,23 @@
       <c r="A22" s="23">
         <v>20</v>
       </c>
-      <c r="B22" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="23" t="s">
-        <v>4</v>
-      </c>
+      <c r="B22" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="38"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="23" t="s">
         <v>4</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="29"/>
+      <c r="H22" s="25" t="s">
+        <v>4</v>
+      </c>
       <c r="I22" s="11" t="s">
         <v>25</v>
       </c>
@@ -1641,13 +1648,13 @@
       <c r="A23" s="23">
         <v>21</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="41"/>
+      <c r="C23" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="40"/>
       <c r="E23" s="23" t="s">
         <v>4</v>
       </c>
@@ -1657,7 +1664,7 @@
       <c r="G23" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="25"/>
+      <c r="H23" s="29"/>
       <c r="I23" s="11" t="s">
         <v>25</v>
       </c>
@@ -1674,12 +1681,12 @@
         <v>22</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="41"/>
+        <v>14</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="38"/>
       <c r="E24" s="23" t="s">
         <v>4</v>
       </c>
@@ -1706,22 +1713,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="23"/>
+        <v>13</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="23" t="s">
+        <v>4</v>
+      </c>
       <c r="F25" s="23" t="s">
         <v>4</v>
       </c>
       <c r="G25" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="25" t="s">
-        <v>4</v>
-      </c>
+      <c r="H25" s="25"/>
       <c r="I25" s="11" t="s">
         <v>25</v>
       </c>
@@ -1738,20 +1745,22 @@
         <v>24</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="23" t="s">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="25"/>
+      <c r="G26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>4</v>
+      </c>
       <c r="I26" s="11" t="s">
         <v>25</v>
       </c>
@@ -1768,12 +1777,12 @@
         <v>25</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="41"/>
+        <v>14</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="38"/>
       <c r="E27" s="23" t="s">
         <v>4</v>
       </c>
@@ -1798,21 +1807,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="41"/>
+        <v>13</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="38"/>
       <c r="E28" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="23" t="s">
-        <v>4</v>
-      </c>
+      <c r="G28" s="23"/>
       <c r="H28" s="25"/>
       <c r="I28" s="11" t="s">
         <v>25</v>
@@ -1830,12 +1837,12 @@
         <v>27</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="41"/>
+        <v>12</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="38"/>
       <c r="E29" s="23" t="s">
         <v>4</v>
       </c>
@@ -1862,12 +1869,12 @@
         <v>28</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="34"/>
+        <v>14</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="38"/>
       <c r="E30" s="23" t="s">
         <v>4</v>
       </c>
@@ -1893,23 +1900,23 @@
       <c r="A31" s="23">
         <v>29</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="43"/>
+      <c r="B31" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="34"/>
       <c r="E31" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" s="31"/>
+      <c r="F31" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="25"/>
       <c r="I31" s="11" t="s">
         <v>25</v>
       </c>
@@ -1926,12 +1933,12 @@
         <v>30</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="40"/>
       <c r="E32" s="23" t="s">
         <v>4</v>
       </c>
@@ -1958,12 +1965,12 @@
         <v>31</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="43"/>
+        <v>14</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="40"/>
       <c r="E33" s="23" t="s">
         <v>4</v>
       </c>
@@ -1989,13 +1996,13 @@
       <c r="A34" s="23">
         <v>32</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="41"/>
+      <c r="B34" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="40"/>
       <c r="E34" s="23" t="s">
         <v>4</v>
       </c>
@@ -2021,21 +2028,23 @@
       <c r="A35" s="23">
         <v>33</v>
       </c>
-      <c r="B35" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="43"/>
+      <c r="B35" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="38"/>
       <c r="E35" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F35" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="32"/>
+      <c r="G35" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="31"/>
       <c r="I35" s="11" t="s">
         <v>25</v>
       </c>
@@ -2054,17 +2063,17 @@
       <c r="B36" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="43"/>
+      <c r="C36" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="40"/>
       <c r="E36" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30" t="s">
-        <v>4</v>
-      </c>
+      <c r="F36" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="29"/>
       <c r="H36" s="32"/>
       <c r="I36" s="11" t="s">
         <v>25</v>
@@ -2081,23 +2090,21 @@
       <c r="A37" s="23">
         <v>35</v>
       </c>
-      <c r="B37" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>4</v>
-      </c>
+      <c r="B37" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="40"/>
+      <c r="E37" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="29"/>
+      <c r="G37" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="32"/>
       <c r="I37" s="11" t="s">
         <v>25</v>
       </c>
@@ -2114,20 +2121,22 @@
         <v>36</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="23" t="s">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="38"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G38" s="23"/>
-      <c r="H38" s="25"/>
+      <c r="G38" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>4</v>
+      </c>
       <c r="I38" s="11" t="s">
         <v>25</v>
       </c>
@@ -2144,12 +2153,12 @@
         <v>37</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="41"/>
+        <v>14</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="38"/>
       <c r="E39" s="23" t="s">
         <v>4</v>
       </c>
@@ -2174,12 +2183,12 @@
         <v>38</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="39"/>
+        <v>13</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="38"/>
       <c r="E40" s="23" t="s">
         <v>4</v>
       </c>
@@ -2206,10 +2215,10 @@
       <c r="B41" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="39"/>
+      <c r="C41" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="42"/>
       <c r="E41" s="23" t="s">
         <v>4</v>
       </c>
@@ -2234,21 +2243,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="41"/>
+        <v>14</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="42"/>
       <c r="E42" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="23" t="s">
-        <v>4</v>
-      </c>
+      <c r="G42" s="23"/>
       <c r="H42" s="25"/>
       <c r="I42" s="11" t="s">
         <v>25</v>
@@ -2268,20 +2275,20 @@
       <c r="B43" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="27" t="s">
-        <v>4</v>
-      </c>
+      <c r="C43" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="38"/>
+      <c r="E43" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="25"/>
       <c r="I43" s="11" t="s">
         <v>25</v>
       </c>
@@ -2298,113 +2305,150 @@
         <v>42</v>
       </c>
       <c r="B44" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="38"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="23">
+        <v>43</v>
+      </c>
+      <c r="B45" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C45" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="25"/>
-      <c r="I44" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J44" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K44" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+      <c r="D45" s="38"/>
+      <c r="E45" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="25"/>
+      <c r="I45" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B47" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="4" t="s">
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="J47" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="K47" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="30">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="30">
         <v>1</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B48" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J47" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K47" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L48" s="21"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="21"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C1:D2"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="C9:D9"/>
@@ -2413,28 +2457,23 @@
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
